--- a/ERD_SEMENTARA.xlsx
+++ b/ERD_SEMENTARA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>User</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>filename</t>
+  </si>
+  <si>
+    <t>rate</t>
   </si>
 </sst>
 </file>
@@ -482,7 +485,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -626,6 +629,9 @@
       </c>
       <c r="C16" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2">

--- a/ERD_SEMENTARA.xlsx
+++ b/ERD_SEMENTARA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>User</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>rate</t>
+  </si>
+  <si>
+    <t>isapproved</t>
   </si>
 </sst>
 </file>
@@ -485,7 +488,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -495,6 +498,7 @@
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -603,6 +607,9 @@
       </c>
       <c r="F11" s="2" t="s">
         <v>34</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:10">
